--- a/Projects/CCUS/FSOP/Data/Coke_FSOP_wave2.xlsx
+++ b/Projects/CCUS/FSOP/Data/Coke_FSOP_wave2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="KPI Assignment" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Availability" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Availability" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="KPI Assignment" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SOS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'KPI Assignment'!$A$1:$J$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'KPI Assignment'!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
     <t xml:space="preserve">Functional logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Family</t>
   </si>
   <si>
     <t xml:space="preserve">Store Type (Additional_Attribute_1)</t>
@@ -42,7 +39,67 @@
     <t xml:space="preserve">scene Type</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI Calc. Type</t>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_required_brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_required_Sparkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_required_Still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_required_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP Equipment 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13: Are PET Sparkling AND Still packages available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers - FSOP,Fountains - FSOP,Cold Vault - FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodyarmor Nutrition llc,CCNA, Coca-Cola Company,Dr Pepper,FairLife LLC,Hansens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hansen's,Hansens Soda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASTIC BOTTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD,Still,STILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP Equipment 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9: Is there availability of at least 1 KO Tea Brand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD PEAK TEA,HONEST TEA,FUZE,Peace tea</t>
   </si>
   <si>
     <t xml:space="preserve">FSOP Equipment 10</t>
@@ -51,22 +108,67 @@
     <t xml:space="preserve">Q10: Is there availability of at least 1 KO Energy Brand?</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers - FSOP,Fountains - FSOP,Cold Vault - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass/Fail</t>
+    <t xml:space="preserve">MONSTER ENERGY,MONSTER COFFEE+ENERGY,Monster Reign,NOS ENERGY,FULL THROTTLE</t>
   </si>
   <si>
     <t xml:space="preserve">FSOP Equipment 11</t>
   </si>
   <si>
     <t xml:space="preserve">Q11: Is there availability of 2 or more strategic growth Brands?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUNKIN DONUTS,MC CAFE,FUZE,HONEST TEA,GOLD PEAK TEA,DASANI SPARKLING,SMARTWATER,SMARTWATER SPARKLING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP Equipment 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14: Is there availability of at least two bottled water SKUs in the outlet? (Topo Chico, Dasani, Smartwater TMs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers - FSOP,Cold Vault - FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMARTWATER,DASANI SPARKLING,DASANI WATER,SMARTWATER SPARKLING,TOPO CHICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP Equipment 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5: Does the outlet include at least 1 dispensed Coca-Cola Still brand? (Could be on VTT or legacy fountain unit or Freestyle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountains - FSOP,Tea Urns - FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountain Valves/Tea urn POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodyarmor Nutrition llc,CCNA,Coca-Cola Company,Dr Pepper,FairLife LLC,Hansens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still,STILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSOP Equipment 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6: Are there tea urns representing Coca-Cola brands in the outlet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Urns - FSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Calc. Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass/Fail</t>
   </si>
   <si>
     <t xml:space="preserve">FSOP Equipment 3</t>
@@ -78,55 +180,16 @@
     <t xml:space="preserve">SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers - FSOP,Cold Vault - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5: Does the outlet include at least 1 dispensed Coca-Cola Still brand? (Could be on VTT or legacy fountain unit or Freestyle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fountains - FSOP,Tea Urns - FSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q13: Are PET Sparkling AND Still packages available?</t>
-  </si>
-  <si>
     <t xml:space="preserve">FSOP Equipment 7</t>
   </si>
   <si>
     <t xml:space="preserve">Q7: Is KO Share of Still Visual Inventory=&gt;50%</t>
   </si>
   <si>
-    <t xml:space="preserve">FSOP Equipment 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q14: Is there availability of at least two bottled water SKUs in the outlet? (Topo Chico, Dasani, Smartwater TMs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9: Is there availability of at least 1 KO Tea Brand?</t>
-  </si>
-  <si>
     <t xml:space="preserve">FSOP Equipment 13</t>
   </si>
   <si>
     <t xml:space="preserve">Q4: Are all valves Coca-Cola brands (would include DP &amp; DDP; if there is a Water Valve, then answer is no)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOP Equipment 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6: Are there tea urns representing Coca-Cola brands in the outlet?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Urns - FSOP</t>
   </si>
   <si>
     <t xml:space="preserve">FSOP Equipment 15</t>
@@ -168,69 +231,6 @@
     <t xml:space="preserve">What % of dispensed brands (including Tea Urns) are KO brands? TTL # of Manufacturer  Valves/TTL # of Valves</t>
   </si>
   <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclude brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">att4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_brands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_Sparkling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_Still</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_required_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodyarmor Nutrition llc,CCNA, Coca-Cola Company,Dr Pepper,FairLife LLC,Hansens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hansen's,Hansens Soda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLASTIC BOTTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD,Still,STILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLD PEAK TEA,HONEST TEA,FUZE,Peace tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONSTER ENERGY,MONSTER COFFEE+ENERGY,Monster Reign,NOS ENERGY,FULL THROTTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUNKIN DONUTS,MC CAFE,FUZE,HONEST TEA,GOLD PEAK TEA,DASANI SPARKLING,SMARTWATER,SMARTWATER SPARKLING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMARTWATER,DASANI SPARKLING,DASANI WATER,SMARTWATER SPARKLING,TOPO CHICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fountain Valves/Tea urn POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodyarmor Nutrition llc,CCNA,Coca-Cola Company,Dr Pepper,FairLife LLC,Hansens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still,STILL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Functional Logic</t>
   </si>
   <si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU,OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU,OTHER,POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
   </si>
   <si>
     <t xml:space="preserve">Bodyarmor Nutrition llc, CCNA, Coca-Cola Company, Dr Pepper, FairLife LLC, Hansens</t>
@@ -299,14 +311,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -316,6 +320,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -352,6 +364,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -360,18 +384,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,6 +447,70 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,16 +519,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -463,32 +531,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -503,79 +555,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,68 +668,368 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J17" activeCellId="0" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.562962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="39.1"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.6703703703704"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="37.1407407407407"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.3814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="12.937037037037"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="16"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.7037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="26.262962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="21.5592592592593"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="35.6703703703704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="53.5037037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="35.6703703703704"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="3" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="97.5037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="9.7"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="17" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.637037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="56.2481481481481"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="19" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="13.7185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
       <c r="AB1" s="0"/>
@@ -1719,43 +2031,43 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
@@ -2757,43 +3069,43 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
@@ -3795,43 +4107,43 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
@@ -4833,43 +5145,43 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="0"/>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
@@ -5871,43 +6183,43 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="0"/>
       <c r="AB6" s="0"/>
@@ -6909,43 +7221,43 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -7947,43 +8259,43 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>9</v>
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
       <c r="Z8" s="0"/>
       <c r="AA8" s="0"/>
       <c r="AB8" s="0"/>
@@ -8984,480 +9296,180 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
+    <row r="9" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>11</v>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>11</v>
+      <c r="A11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>36</v>
+      <c r="E12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>36</v>
+      <c r="F13" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>36</v>
+      <c r="E14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>36</v>
+      <c r="E15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" activeCellId="0" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="89.8592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="37.4333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="37.337037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="31.6518518518518"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="35.2777777777778"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="26" width="24.2037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="3" width="12.5444444444444"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="9" t="s">
+      <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9475,61 +9487,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="100.540740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="38.3148148148148"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.7"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="19.9925925925926"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="5.38888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="3" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="105.737037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="40.2740740740741"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.9703703703704"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.58518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="12.937037037037"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="6" t="s">
         <v>72</v>
       </c>
       <c r="L1" s="34" t="s">
@@ -9538,271 +9550,298 @@
       <c r="M1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="6" t="s">
         <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
+      <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="8" t="n">
         <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>67</v>
+      <c r="I3" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="n">
         <v>50</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="32"/>
+      <c r="I4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>77</v>
+      <c r="A5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="22" t="n">
+      <c r="L5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="30" t="n">
         <v>100</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21" t="s">
+      <c r="F6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="A7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+      <c r="A8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="A9" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>58</v>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>65</v>
+      <c r="L9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N9" s="36"/>
+      <c r="O9" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
